--- a/MA120/probability/Binomial.xlsx
+++ b/MA120/probability/Binomial.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Number of Trials</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Binomial Probability</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Lower 2 Standard Deviations</t>
+  </si>
+  <si>
+    <t>Upper 2 Standard Deviations</t>
   </si>
 </sst>
 </file>
@@ -395,16 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -417,14 +431,14 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
         <f>FACT(B2)</f>
-        <v>362880</v>
+        <v>9.3326215443944175E+157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -437,14 +451,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
         <f>FACT(B5)</f>
-        <v>6</v>
+        <v>6402373705728000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,7 +467,7 @@
       </c>
       <c r="E6">
         <f>B2-B5</f>
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,7 +479,7 @@
       </c>
       <c r="E7">
         <f>FACT(E6)</f>
-        <v>720</v>
+        <v>4.7536433370128435E+122</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,14 +487,14 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
         <f>E7*E5</f>
-        <v>4320</v>
+        <v>3.0434601107300135E+138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,7 +503,7 @@
       </c>
       <c r="E9">
         <f>E2/E8</f>
-        <v>84</v>
+        <v>3.0664510802988204E+19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +515,7 @@
       </c>
       <c r="E10">
         <f>POWER(B8,B5)</f>
-        <v>8.0000000000000019E-3</v>
+        <v>1.4778918800353998E-15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -510,14 +524,14 @@
       </c>
       <c r="B11">
         <f>1-B8</f>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11">
         <f>POWER(B11,E6)</f>
-        <v>0.26214400000000015</v>
+        <v>1.630616785319822E-6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,7 +540,43 @@
       </c>
       <c r="B14">
         <f>E9*E10*E11</f>
-        <v>0.17616076800000013</v>
+        <v>7.3897647369213962E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f>B2*B8</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>SQRT(B2*B8*B11)</f>
+        <v>3.5707142142714252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f>B15 - (2 *B16)</f>
+        <v>7.8585715714571496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <f>B15 + (2 *B16)</f>
+        <v>22.141428428542852</v>
       </c>
     </row>
   </sheetData>
